--- a/Archivo1_Excel.xlsx
+++ b/Archivo1_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Excel-Career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC45991D-3EBC-4C59-8CC5-31F477E645AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09AC2E8-2EDF-400F-BD2B-AEEB3FD63CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="3" xr2:uid="{624A4EA7-6831-4E6A-8547-449E16240EF0}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="5" activeTab="8" xr2:uid="{624A4EA7-6831-4E6A-8547-449E16240EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Valencia" sheetId="12" r:id="rId6"/>
+    <sheet name="Sevilla" sheetId="16" r:id="rId7"/>
+    <sheet name="Madrid" sheetId="17" r:id="rId8"/>
+    <sheet name="Total" sheetId="18" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Fabrica_A">Hoja4!$B$12:$B$13</definedName>
     <definedName name="Fabrica_B">Hoja4!$C$12:$C$13</definedName>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>PREVISIÓN DE VENTAS</t>
   </si>
@@ -176,6 +183,42 @@
   </si>
   <si>
     <t>Fabrica A</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>ALEMANIA</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Naranjas</t>
+  </si>
+  <si>
+    <t>Limones</t>
+  </si>
+  <si>
+    <t>Peras</t>
+  </si>
+  <si>
+    <t>Manzanas</t>
+  </si>
+  <si>
+    <t>IVA</t>
   </si>
 </sst>
 </file>
@@ -309,16 +352,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +367,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,24 +402,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,6 +432,1244 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="40"/>
+      <c:depthPercent val="160"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja5!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESPAÑA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FRANCIA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ITALIA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALEMANIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79DA-461A-9F64-D0EF9381AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja5!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESPAÑA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FRANCIA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ITALIA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALEMANIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79DA-461A-9F64-D0EF9381AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja5!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ESPAÑA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FRANCIA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ITALIA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALEMANIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79DA-461A-9F64-D0EF9381AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="2079830463"/>
+        <c:axId val="2073755455"/>
+        <c:axId val="271058847"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2079830463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073755455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2073755455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Millones de €</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2079830463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="271058847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073755455"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587E1889-4193-3900-B66E-E6CB707D11E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,9 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B5C65-7625-4F3F-9507-7DF4260F030C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -698,348 +1985,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>50</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>150</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <v>1000000</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <f>B6*D6</f>
         <v>50000000</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <f>C6*D6</f>
         <v>150000000</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <f>F6-E6</f>
         <v>100000000</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>80</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>220</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <v>500000</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:E12" si="0">B7*D7</f>
         <v>40000000</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <f t="shared" ref="F7:F12" si="1">C7*D7</f>
         <v>110000000</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <f t="shared" ref="G7:G12" si="2">F7-E7</f>
         <v>70000000</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>110</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>260</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="12">
         <v>3000000</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>330000000</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>780000000</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <f t="shared" si="2"/>
         <v>450000000</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>110</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>300</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="12">
         <v>2000000</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>220000000</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>600000000</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <f t="shared" si="2"/>
         <v>380000000</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>90</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>180</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="12">
         <v>1400000</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>126000000</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>252000000</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <f t="shared" si="2"/>
         <v>126000000</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>42</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <v>140</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="12">
         <v>800000</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>33600000</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>112000000</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="12">
         <f t="shared" si="2"/>
         <v>78400000</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>40</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="11">
         <v>120</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="12">
         <v>500000</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>60000000</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="12">
         <f t="shared" si="2"/>
         <v>40000000</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="13">
         <f>SUM(D6:D12)</f>
         <v>9200000</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:G13" si="3">SUM(E6:E12)</f>
         <v>819600000</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="13">
         <f t="shared" si="3"/>
         <v>2064000000</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="13">
         <f t="shared" si="3"/>
         <v>1244400000</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="13">
         <f>AVERAGE(D6:D12)</f>
         <v>1314285.7142857143</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="13">
         <f t="shared" ref="E14:G14" si="4">AVERAGE(E6:E12)</f>
         <v>117085714.28571428</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="13">
         <f t="shared" si="4"/>
         <v>294857142.85714287</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="13">
         <f t="shared" si="4"/>
         <v>177771428.57142857</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1058,24 +2345,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D199E375-8E19-4BC2-82B4-81DB4544683E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1083,11 +2368,11 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
+      <c r="B3" s="20"/>
+      <c r="C3" s="3">
         <v>32000</v>
       </c>
     </row>
@@ -1102,201 +2387,201 @@
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0.06</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f>$C$3*B7</f>
         <v>1920</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:C21" si="0">$C$3*B8</f>
         <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0.06</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>2368</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>0.08</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>0.06</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>2368</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>0.08</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>0.06</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>2368</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>0.08</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <f>SUM(B7:B21)</f>
         <v>1</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <f>SUM(C7:C21)</f>
         <v>32000</v>
       </c>
@@ -1315,9 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F691A-0EE4-4906-99F1-C95EF286166E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1350,11 +2633,11 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:F2" si="0">C$1*$A2</f>
+        <f>C$1*$A2</f>
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:F2" si="0">D$1*$A2</f>
         <v>30</v>
       </c>
       <c r="E2" s="1">
@@ -1468,159 +2751,780 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D9A8F1-B0EF-46FF-9013-F4FAC1EB1464}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="G4">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:I8" si="0">SUM(Ventas)</f>
+        <v>26</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="G5">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="I7">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <f>SUM(Ventas)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>25</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <f>SUM(Tuercas)+SUM(Tornillos)</f>
         <v>88</v>
       </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE107C7-253A-4BB5-A71D-152A187DD023}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="21">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="21">
+        <v>950</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1050</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="21">
+        <v>720</v>
+      </c>
+      <c r="C3" s="21">
+        <v>900</v>
+      </c>
+      <c r="D3" s="21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="21">
+        <v>800</v>
+      </c>
+      <c r="C4" s="21">
+        <v>750</v>
+      </c>
+      <c r="D4" s="21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21">
+        <v>800</v>
+      </c>
+      <c r="C5" s="21">
+        <v>700</v>
+      </c>
+      <c r="D5" s="21">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A569DC71-3E1F-4C32-B422-040B72B72154}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="600" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="22">
+        <v>12</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="23">
+        <f>B3*C3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="22">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="23">
+        <f t="shared" ref="D4:D6" si="0">B4*C4</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22">
+        <v>18</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22">
+        <v>20</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD94BDB3-38A4-41E5-9ED6-3AEEA5D65F12}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="22">
+        <v>60</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D3" s="24">
+        <f>B3*C3</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="22">
+        <v>40</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D6" si="0">B4*C4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22">
+        <v>52</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22">
+        <v>48</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19433-8E9A-4ACA-94F3-9E7333C64C86}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="22">
+        <v>120</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="24">
+        <f>B3*C3</f>
+        <v>62.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="22">
+        <v>100</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D6" si="0">B4*C4</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22">
+        <v>90</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22">
+        <v>110</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5788804-1124-471B-B720-7BAA4614305B}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="24">
+        <f>Valencia!D3+Sevilla!D3+Madrid!D3</f>
+        <v>95.4</v>
+      </c>
+      <c r="C3" s="23">
+        <f>B3*C$1</f>
+        <v>20.033999999999999</v>
+      </c>
+      <c r="D3" s="23">
+        <f>SUM(B3:C3)</f>
+        <v>115.434</v>
+      </c>
+      <c r="E3" s="26">
+        <f>D3*[1]Hoja1!$B$2</f>
+        <v>11.5434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="24">
+        <f>Valencia!D4+Sevilla!D4+Madrid!D4</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="C4" s="23">
+        <f>B4*C$1</f>
+        <v>27.971999999999998</v>
+      </c>
+      <c r="D4" s="23">
+        <f t="shared" ref="D4:D6" si="0">SUM(B4:C4)</f>
+        <v>161.172</v>
+      </c>
+      <c r="E4" s="26">
+        <f>D4*[1]Hoja1!$B$2</f>
+        <v>16.1172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="24">
+        <f>Valencia!D5+Sevilla!D5+Madrid!D5</f>
+        <v>90.98</v>
+      </c>
+      <c r="C5" s="23">
+        <f>B5*C$1</f>
+        <v>19.105799999999999</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>110.08580000000001</v>
+      </c>
+      <c r="E5" s="26">
+        <f>D5*[1]Hoja1!$B$2</f>
+        <v>11.008580000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="24">
+        <f>Valencia!D6+Sevilla!D6+Madrid!D6</f>
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C6" s="23">
+        <f>B6*C$1</f>
+        <v>14.090999999999998</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>81.190999999999988</v>
+      </c>
+      <c r="E6" s="26">
+        <f>D6*[1]Hoja1!$B$2</f>
+        <v>8.1190999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="23">
+        <f>SUM(D3:D6)</f>
+        <v>467.88279999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LCarrera Excel&amp;C&amp;Z&amp;F</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>